--- a/src/Source.xlsx
+++ b/src/Source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKataraKeshava\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\githubactionswithPython\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA764B7-B17E-4F1F-8DB2-79563BE4EA41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9CEF9B-CC94-408E-8BF2-EEE850264BA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{562F12FC-B346-4D7E-8101-A676095A60EF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>University</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Artifical Intelligence</t>
+  </si>
+  <si>
+    <t>Conrad</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF5B75-AE29-47AF-8A65-EAB025ECDF3C}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,6 +510,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44903</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/Source.xlsx
+++ b/src/Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\githubactionswithPython\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9CEF9B-CC94-408E-8BF2-EEE850264BA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EA0EA5-551D-41EB-A160-D94FE7B6BEB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{562F12FC-B346-4D7E-8101-A676095A60EF}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>Artifical Intelligence</t>
   </si>
   <si>
-    <t>Conrad</t>
+    <t>Dr.Conrad</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/Source.xlsx
+++ b/src/Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\githubactionswithPython\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EA0EA5-551D-41EB-A160-D94FE7B6BEB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135B996A-0F8C-4B7E-BFDE-FA68947348BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{562F12FC-B346-4D7E-8101-A676095A60EF}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>Artifical Intelligence</t>
   </si>
   <si>
-    <t>Dr.Conrad</t>
+    <t>Conrad</t>
   </si>
 </sst>
 </file>
